--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1615624.729300358</v>
+        <v>-1618521.793965839</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134.210055303018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>181.9464834953472</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>17.32087980241661</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>229.5889480231532</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>282.9231361894855</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>113.2788623889627</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>155.8311773578302</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>49.45256041645978</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>69.60162832207632</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>131.8885380358319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.04875807993751</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>27.26618645491687</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>353.1459972433406</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1427,7 +1427,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>326.2152140927927</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>88.34512308508805</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>55.91958182404757</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>82.5214078207332</v>
       </c>
       <c r="E16" t="n">
-        <v>60.46574022124238</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.62151774815479</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758758</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>102.1557845699818</v>
+        <v>65.38324202937314</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>21.90286287505425</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>58.24570521548602</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652626</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3797,10 +3797,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1410.441886223811</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C2" t="n">
-        <v>1041.479369283399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D2" t="n">
-        <v>1041.479369283399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>655.6911166851546</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1936.146930626913</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1546.007598651101</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>221.5554594169594</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>221.5554594169594</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>71.43882000462366</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>442.3480385604895</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>442.3480385604895</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>221.5554594169594</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1022.045772923999</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1022.045772923999</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.045772923999</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>636.257520325755</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>629.3120195765515</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>211.3482114747384</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.645612988121</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>678.176902977687</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>450.8687156462887</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U7" t="n">
-        <v>450.8687156462887</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V7" t="n">
-        <v>450.8687156462887</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W7" t="n">
-        <v>450.8687156462887</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.100961840373</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1338.985622382834</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>953.1973697845895</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>542.211464994982</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>124.2476568931688</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y8" t="n">
-        <v>1936.700801904495</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144.9013233152508</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>144.9013233152508</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>144.9013233152508</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.9013233152508</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.229508727735</v>
+        <v>2316.676938649612</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.266991787324</v>
+        <v>1947.7144217092</v>
       </c>
       <c r="D11" t="n">
         <v>1591.001293180573</v>
@@ -5075,16 +5075,16 @@
         <v>4150.71341156431</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.203094298863</v>
+        <v>3819.650524220739</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.434439028749</v>
+        <v>3466.881868950625</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.968680767669</v>
+        <v>3093.416110689545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.829348791857</v>
+        <v>2703.276778713734</v>
       </c>
     </row>
     <row r="12">
@@ -5130,13 +5130,13 @@
         <v>1062.705720206928</v>
       </c>
       <c r="N12" t="n">
-        <v>1587.320676165861</v>
+        <v>1356.759402180614</v>
       </c>
       <c r="O12" t="n">
-        <v>2134.197151166055</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.780669592131</v>
+        <v>2323.219395606885</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.780669592131</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>660.5110199841062</v>
+        <v>727.9967737960287</v>
       </c>
       <c r="C13" t="n">
-        <v>491.5748370561993</v>
+        <v>559.0605908681218</v>
       </c>
       <c r="D13" t="n">
-        <v>491.5748370561993</v>
+        <v>408.9439514557861</v>
       </c>
       <c r="E13" t="n">
-        <v>343.6617434738062</v>
+        <v>261.030857873393</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6617434738062</v>
+        <v>261.030857873393</v>
       </c>
       <c r="G13" t="n">
-        <v>176.447548648385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>176.447548648385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5233,16 @@
         <v>1669.596282958599</v>
       </c>
       <c r="V13" t="n">
-        <v>1580.358784892854</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="W13" t="n">
-        <v>1290.941614855893</v>
+        <v>1358.427368667816</v>
       </c>
       <c r="X13" t="n">
-        <v>1062.952063957876</v>
+        <v>1130.437817769799</v>
       </c>
       <c r="Y13" t="n">
-        <v>842.1594848143459</v>
+        <v>909.6452386262685</v>
       </c>
     </row>
     <row r="14">
@@ -5285,10 +5285,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.547769317909</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900021</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4949469776664</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2149.810879820877</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>135.97962399503</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,22 +5832,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297717</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297717</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>322.7933138979686</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7023,16 +7023,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,64 +7069,64 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,7 +7445,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961266</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>248.5237863604626</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>129.1130828441526</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,25 +22747,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>56.69292621882457</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.537044377342397</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.537044377342227</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7925202387399</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>230.6034165125434</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>66.09406519747915</v>
       </c>
       <c r="E16" t="n">
-        <v>85.96822242532679</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.2104624337825</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>63.36835372228705</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>126.7126101431581</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>21.00892946589976</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99554.90470603394</v>
+        <v>99554.90470603389</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796424</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>5759.938886718172</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670414</v>
+        <v>5067.592601670418</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.59260167044</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670461</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670449</v>
       </c>
       <c r="K4" t="n">
+        <v>13058.45186476391</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13058.45186476391</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13058.45186476391</v>
+      </c>
+      <c r="N4" t="n">
         <v>13058.45186476389</v>
       </c>
-      <c r="L4" t="n">
-        <v>13058.45186476389</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13058.4518647639</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>13058.45186476392</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13058.45186476393</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-684530.6940451039</v>
+        <v>-684924.0500579975</v>
       </c>
       <c r="C6" t="n">
+        <v>-160767.3185114985</v>
+      </c>
+      <c r="D6" t="n">
         <v>-160767.3185114986</v>
       </c>
-      <c r="D6" t="n">
-        <v>-160767.3185114985</v>
-      </c>
       <c r="E6" t="n">
-        <v>-922073.212925873</v>
+        <v>-922109.4157795684</v>
       </c>
       <c r="F6" t="n">
-        <v>7029.229912972325</v>
+        <v>6994.491987536603</v>
       </c>
       <c r="G6" t="n">
-        <v>14881.86752792333</v>
+        <v>14847.12960248768</v>
       </c>
       <c r="H6" t="n">
-        <v>14881.86752792334</v>
+        <v>14847.12960248765</v>
       </c>
       <c r="I6" t="n">
-        <v>14881.86752792339</v>
+        <v>14847.12960248765</v>
       </c>
       <c r="J6" t="n">
-        <v>-161541.3516646696</v>
+        <v>-161576.0895901053</v>
       </c>
       <c r="K6" t="n">
         <v>-12494.02023266866</v>
       </c>
       <c r="L6" t="n">
-        <v>6933.697760963216</v>
+        <v>6933.697760963056</v>
       </c>
       <c r="M6" t="n">
         <v>-117274.8129470953</v>
       </c>
       <c r="N6" t="n">
-        <v>6933.697760963172</v>
+        <v>6933.697760963216</v>
       </c>
       <c r="O6" t="n">
-        <v>6933.69776096323</v>
+        <v>6933.697760963158</v>
       </c>
       <c r="P6" t="n">
         <v>-12494.02023266861</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>224.9295622463642</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3.599862147105512</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>269.4549792745179</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>168.091595406527</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>51.3673158183902</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>162.6929785335591</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>254.3211444422808</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>254.3494006202217</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>56.38520456663166</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>224.8714568689111</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30517,10 +30517,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31850,7 +31850,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>661.2558090115489</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426204</v>
@@ -31859,7 +31859,7 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,28 +32072,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>491.5977325265315</v>
       </c>
       <c r="P18" t="n">
-        <v>541.2980521010957</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.2560498238272</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107751</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496639</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>499.3768644016567</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N36" t="n">
-        <v>230.1272937575231</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>200.4500263280939</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N45" t="n">
-        <v>288.8958573929172</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>529.9140969282156</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O12" t="n">
         <v>552.400479798176</v>
@@ -35507,7 +35507,7 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,13 +35653,13 @@
         <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>300.6896499849021</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="P18" t="n">
-        <v>407.3236446867654</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.2742757378057</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663306</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663306</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>368.0351523183234</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N36" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>66.47561891376371</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N45" t="n">
-        <v>157.5541453095838</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
